--- a/branches/SSH2/Documents/DailyPlan_201308.xlsx
+++ b/branches/SSH2/Documents/DailyPlan_201308.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5112" yWindow="1488" windowWidth="16788" windowHeight="5292"/>
+    <workbookView xWindow="5112" yWindow="1488" windowWidth="16788" windowHeight="5292" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="6" sheetId="9" r:id="rId1"/>
+    <sheet name="21" sheetId="10" r:id="rId2"/>
+    <sheet name="22" sheetId="11" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:M14"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Write CURD demo</t>
   </si>
@@ -26,7 +27,28 @@
     <t>1h</t>
   </si>
   <si>
-    <t>pP798798</t>
+    <t>18:00-19:00</t>
+  </si>
+  <si>
+    <t>P798</t>
+  </si>
+  <si>
+    <t>解决启动项目时发现的配置问题</t>
+  </si>
+  <si>
+    <t>16:45-18:30</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>15:30-16:00</t>
+  </si>
+  <si>
+    <t>0.5h</t>
+  </si>
+  <si>
+    <t>16:00-16:30</t>
   </si>
 </sst>
 </file>
@@ -372,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -383,30 +405,108 @@
     <col min="2" max="2" width="43.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:6">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
       <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" customFormat="1"/>
-    <row r="3" spans="1:8" customFormat="1"/>
-    <row r="4" spans="1:8" customFormat="1"/>
-    <row r="5" spans="1:8" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="33.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="5.5546875" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="21.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/branches/SSH2/Documents/DailyPlan_201308.xlsx
+++ b/branches/SSH2/Documents/DailyPlan_201308.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5112" yWindow="1488" windowWidth="16788" windowHeight="5292" activeTab="2"/>
+    <workbookView xWindow="5112" yWindow="1608" windowWidth="16788" windowHeight="5172" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="6" sheetId="9" r:id="rId1"/>
     <sheet name="21" sheetId="10" r:id="rId2"/>
     <sheet name="22" sheetId="11" r:id="rId3"/>
+    <sheet name="28" sheetId="12" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>Write CURD demo</t>
   </si>
@@ -49,6 +50,24 @@
   </si>
   <si>
     <t>16:00-16:30</t>
+  </si>
+  <si>
+    <t>写CURD demo</t>
+  </si>
+  <si>
+    <t>17:30-18:00</t>
+  </si>
+  <si>
+    <t>18:30-20:30</t>
+  </si>
+  <si>
+    <t>16:00-18:00</t>
+  </si>
+  <si>
+    <t>19:30-21:00</t>
+  </si>
+  <si>
+    <t>1.5h</t>
   </si>
 </sst>
 </file>
@@ -471,10 +490,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -506,6 +525,68 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/branches/SSH2/Documents/DailyPlan_201308.xlsx
+++ b/branches/SSH2/Documents/DailyPlan_201308.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5112" yWindow="1608" windowWidth="16788" windowHeight="5172" activeTab="3"/>
+    <workbookView xWindow="5112" yWindow="1608" windowWidth="16788" windowHeight="5172" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="6" sheetId="9" r:id="rId1"/>
     <sheet name="21" sheetId="10" r:id="rId2"/>
     <sheet name="22" sheetId="11" r:id="rId3"/>
     <sheet name="28" sheetId="12" r:id="rId4"/>
+    <sheet name="29" sheetId="13" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>Write CURD demo</t>
   </si>
@@ -68,6 +69,12 @@
   </si>
   <si>
     <t>1.5h</t>
+  </si>
+  <si>
+    <t>Action中使用ModelDriven</t>
+  </si>
+  <si>
+    <t>20:30-22:00</t>
   </si>
 </sst>
 </file>
@@ -556,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -590,4 +597,36 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="25.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/branches/SSH2/Documents/DailyPlan_201308.xlsx
+++ b/branches/SSH2/Documents/DailyPlan_201308.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5112" yWindow="1608" windowWidth="16788" windowHeight="5172" activeTab="4"/>
+    <workbookView xWindow="5112" yWindow="1608" windowWidth="16788" windowHeight="5172" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="6" sheetId="9" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="22" sheetId="11" r:id="rId3"/>
     <sheet name="28" sheetId="12" r:id="rId4"/>
     <sheet name="29" sheetId="13" r:id="rId5"/>
+    <sheet name="30" sheetId="14" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>Write CURD demo</t>
   </si>
@@ -75,6 +76,15 @@
   </si>
   <si>
     <t>20:30-22:00</t>
+  </si>
+  <si>
+    <t>清理JDBC代码，只使用Hibernate操作数据库</t>
+  </si>
+  <si>
+    <t>13:00 -16:00</t>
+  </si>
+  <si>
+    <t>3h</t>
   </si>
 </sst>
 </file>
@@ -117,8 +127,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -603,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -629,4 +640,37 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.44140625" customWidth="1"/>
+    <col min="2" max="2" width="41.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>